--- a/Data_process/碳足迹/update_with_label.xlsx
+++ b/Data_process/碳足迹/update_with_label.xlsx
@@ -635,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>0.004081632653061225</v>
@@ -727,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>35.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S3" t="n">
         <v>0.0326530612244898</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>0.32</v>
       </c>
       <c r="S4" t="n">
         <v>0.04081632653061224</v>
@@ -911,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R5" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.720000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="R6" t="n">
-        <v>2.56</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="S6" t="n">
         <v>0.01224489795918367</v>
@@ -1095,10 +1095,10 @@
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.8</v>
+        <v>4.16</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8</v>
+        <v>0.16</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R8" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1279,10 +1279,10 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
         <v>0.06122448979591837</v>
@@ -1371,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>0.0326530612244898</v>
@@ -1463,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S11" t="n">
         <v>0.01224489795918367</v>
@@ -1555,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
         <v>0.04081632653061224</v>
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.6</v>
+        <v>6.4</v>
       </c>
       <c r="R13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>0.02040816326530612</v>
@@ -1739,10 +1739,10 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
         <v>0.04081632653061224</v>
@@ -1831,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R15" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
         <v>0.04081632653061224</v>
@@ -1923,10 +1923,10 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R16" t="n">
-        <v>14.4</v>
+        <v>2.88</v>
       </c>
       <c r="S16" t="n">
         <v>0.04081632653061224</v>
@@ -2015,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R17" t="n">
-        <v>11.2</v>
+        <v>2.24</v>
       </c>
       <c r="S17" t="n">
         <v>0.09061224489795919</v>
@@ -2107,10 +2107,10 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0.0326530612244898</v>
@@ -2199,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S19" t="n">
         <v>0.02040816326530612</v>
@@ -2291,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R20" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
         <v>0.07755102040816327</v>
@@ -2383,10 +2383,10 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R21" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S21" t="n">
         <v>0.0326530612244898</v>
@@ -2475,10 +2475,10 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="R22" t="n">
-        <v>3.2</v>
+        <v>0.64</v>
       </c>
       <c r="S22" t="n">
         <v>0.004081632653061225</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="R23" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2659,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="R24" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.224</v>
+        <v>5.056000000000001</v>
       </c>
       <c r="R25" t="n">
-        <v>15.36</v>
+        <v>3.84</v>
       </c>
       <c r="S25" t="n">
         <v>0.009795918367346938</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2935,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R27" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -3027,10 +3027,10 @@
         <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R28" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="S28" t="n">
         <v>0.02040816326530612</v>
@@ -3119,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>27.2</v>
+        <v>5.44</v>
       </c>
       <c r="R29" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S29" t="n">
         <v>0.0326530612244898</v>
@@ -3211,10 +3211,10 @@
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.6</v>
+        <v>5.12</v>
       </c>
       <c r="R30" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S30" t="n">
         <v>0.0326530612244898</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S31" t="n">
         <v>0.02040816326530612</v>
@@ -3395,10 +3395,10 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>13.6</v>
+        <v>3.4</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
         <v>0.01224489795918367</v>
@@ -3487,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R33" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
         <v>0.08163265306122448</v>
@@ -3579,10 +3579,10 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3671,10 +3671,10 @@
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R35" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
         <v>0.0326530612244898</v>
@@ -3763,10 +3763,10 @@
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R36" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S36" t="n">
         <v>0.08163265306122448</v>
@@ -3855,10 +3855,10 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R37" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S37" t="n">
         <v>0.0326530612244898</v>
@@ -3947,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="Q38" t="n">
-        <v>27.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="R38" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S38" t="n">
         <v>0.02040816326530612</v>
@@ -4039,10 +4039,10 @@
         <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R39" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S39" t="n">
         <v>0.04081632653061224</v>
@@ -4131,10 +4131,10 @@
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S40" t="n">
         <v>0.04081632653061224</v>
@@ -4223,10 +4223,10 @@
         <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.44</v>
+        <v>5.36</v>
       </c>
       <c r="R41" t="n">
-        <v>13.904</v>
+        <v>3.476</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -4315,10 +4315,10 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="R42" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S42" t="n">
         <v>0.02040816326530612</v>
@@ -4407,10 +4407,10 @@
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.864</v>
+        <v>5.3728</v>
       </c>
       <c r="R43" t="n">
-        <v>3.408</v>
+        <v>0.6816</v>
       </c>
       <c r="S43" t="n">
         <v>0.04081632653061224</v>
@@ -4499,10 +4499,10 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>25.6</v>
+        <v>5.12</v>
       </c>
       <c r="R44" t="n">
-        <v>3.2</v>
+        <v>0.64</v>
       </c>
       <c r="S44" t="n">
         <v>0.02040816326530612</v>
@@ -4591,10 +4591,10 @@
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R45" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S45" t="n">
         <v>0.04081632653061224</v>
@@ -4683,10 +4683,10 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.2</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="R46" t="n">
-        <v>7.68</v>
+        <v>1.92</v>
       </c>
       <c r="S46" t="n">
         <v>0.0326530612244898</v>
@@ -4775,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>24.368</v>
+        <v>4.873600000000001</v>
       </c>
       <c r="R47" t="n">
-        <v>9.215999999999999</v>
+        <v>1.8432</v>
       </c>
       <c r="S47" t="n">
         <v>0.02693877551020408</v>
@@ -4867,10 +4867,10 @@
         <v>1</v>
       </c>
       <c r="Q48" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R48" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="S48" t="n">
         <v>0.08163265306122448</v>
@@ -4959,10 +4959,10 @@
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>25.6</v>
+        <v>5.12</v>
       </c>
       <c r="R49" t="n">
-        <v>2.4</v>
+        <v>0.4800000000000001</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -5051,10 +5051,10 @@
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R50" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S50" t="n">
         <v>0.04081632653061224</v>
@@ -5143,10 +5143,10 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R51" t="n">
-        <v>2.88</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="S51" t="n">
         <v>0.0326530612244898</v>
@@ -5235,10 +5235,10 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>2.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S52" t="n">
         <v>0.0163265306122449</v>
@@ -5327,10 +5327,10 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R53" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="S53" t="n">
         <v>0.04081632653061224</v>
@@ -5419,10 +5419,10 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R54" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S54" t="n">
         <v>0.0163265306122449</v>
@@ -5511,10 +5511,10 @@
         <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="R55" t="n">
-        <v>3.2</v>
+        <v>0.64</v>
       </c>
       <c r="S55" t="n">
         <v>0.00816326530612245</v>
@@ -5603,10 +5603,10 @@
         <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>32</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="R56" t="n">
-        <v>4.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="S56" t="n">
         <v>0.04081632653061224</v>
@@ -5695,10 +5695,10 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>13.6</v>
+        <v>3.4</v>
       </c>
       <c r="R57" t="n">
-        <v>1.92</v>
+        <v>0.48</v>
       </c>
       <c r="S57" t="n">
         <v>0.0163265306122449</v>
@@ -5787,10 +5787,10 @@
         <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R58" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S58" t="n">
         <v>0.0326530612244898</v>
@@ -5879,10 +5879,10 @@
         <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R59" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S59" t="n">
         <v>0.0326530612244898</v>
@@ -5971,10 +5971,10 @@
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R60" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S60" t="n">
         <v>0.0163265306122449</v>
@@ -6063,10 +6063,10 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R61" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S61" t="n">
         <v>0.03673469387755102</v>
@@ -6155,10 +6155,10 @@
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S62" t="n">
         <v>0.05714285714285714</v>
@@ -6247,10 +6247,10 @@
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R63" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S63" t="n">
         <v>0.04081632653061224</v>
@@ -6339,10 +6339,10 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R64" t="n">
-        <v>3.68</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="S64" t="n">
         <v>0.07755102040816327</v>
@@ -6431,10 +6431,10 @@
         <v>1</v>
       </c>
       <c r="Q65" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R65" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S65" t="n">
         <v>0.03102040816326531</v>
@@ -6523,10 +6523,10 @@
         <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R66" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S66" t="n">
         <v>0.00816326530612245</v>
@@ -6615,10 +6615,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R67" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S67" t="n">
         <v>0.04081632653061224</v>
@@ -6707,10 +6707,10 @@
         <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>24.64</v>
+        <v>4.928</v>
       </c>
       <c r="R68" t="n">
-        <v>6.720000000000001</v>
+        <v>1.344</v>
       </c>
       <c r="S68" t="n">
         <v>0.01224489795918367</v>
@@ -6799,10 +6799,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R69" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S69" t="n">
         <v>0.0636734693877551</v>
@@ -6891,10 +6891,10 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R70" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S70" t="n">
         <v>0.08163265306122448</v>
@@ -6983,10 +6983,10 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R71" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S71" t="n">
         <v>0.00816326530612245</v>
@@ -7075,10 +7075,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
         <v>0.04081632653061224</v>
@@ -7167,10 +7167,10 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R73" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S73" t="n">
         <v>0.0326530612244898</v>
@@ -7259,10 +7259,10 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R74" t="n">
-        <v>11.2</v>
+        <v>2.24</v>
       </c>
       <c r="S74" t="n">
         <v>0.1020408163265306</v>
@@ -7351,10 +7351,10 @@
         <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="R75" t="n">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="S75" t="n">
         <v>0.08163265306122448</v>
@@ -7443,10 +7443,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R76" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S76" t="n">
         <v>0.0326530612244898</v>
@@ -7535,10 +7535,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R77" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
         <v>0.04081632653061224</v>
@@ -7627,10 +7627,10 @@
         <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R78" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S78" t="n">
         <v>0.00816326530612245</v>
@@ -7719,10 +7719,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>18.4</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="R79" t="n">
-        <v>1.12</v>
+        <v>0.28</v>
       </c>
       <c r="S79" t="n">
         <v>0.0326530612244898</v>
@@ -7811,10 +7811,10 @@
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R80" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S80" t="n">
         <v>0.04081632653061224</v>
@@ -7903,10 +7903,10 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R81" t="n">
-        <v>9.600000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="S81" t="n">
         <v>0.06122448979591837</v>
@@ -7995,10 +7995,10 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R82" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S82" t="n">
         <v>0.0326530612244898</v>
@@ -8087,10 +8087,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -8179,10 +8179,10 @@
         <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R84" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S84" t="n">
         <v>0.08163265306122448</v>
@@ -8271,10 +8271,10 @@
         <v>3</v>
       </c>
       <c r="Q85" t="n">
-        <v>12.8</v>
+        <v>2.56</v>
       </c>
       <c r="R85" t="n">
-        <v>3.2</v>
+        <v>0.64</v>
       </c>
       <c r="S85" t="n">
         <v>0.02857142857142857</v>
@@ -8363,10 +8363,10 @@
         <v>1</v>
       </c>
       <c r="Q86" t="n">
-        <v>12.8</v>
+        <v>2.56</v>
       </c>
       <c r="R86" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S86" t="n">
         <v>0.08163265306122448</v>
@@ -8455,10 +8455,10 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R87" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S87" t="n">
         <v>0.06122448979591837</v>
@@ -8547,10 +8547,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R88" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S88" t="n">
         <v>0.0008163265306122449</v>
@@ -8639,10 +8639,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="n">
-        <v>30.4</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="R89" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S89" t="n">
         <v>0.02040816326530612</v>
@@ -8731,10 +8731,10 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R90" t="n">
-        <v>3.2</v>
+        <v>0.64</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
@@ -8823,10 +8823,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>30.4</v>
+        <v>6.08</v>
       </c>
       <c r="R91" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S91" t="n">
         <v>0.00816326530612245</v>
@@ -8915,10 +8915,10 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>35.2</v>
+        <v>7.040000000000001</v>
       </c>
       <c r="R92" t="n">
-        <v>5.600000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="S92" t="n">
         <v>0.02040816326530612</v>
@@ -9007,10 +9007,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R93" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S93" t="n">
         <v>0.04081632653061224</v>
@@ -9099,10 +9099,10 @@
         <v>3</v>
       </c>
       <c r="Q94" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R94" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S94" t="n">
         <v>0.04081632653061224</v>
@@ -9191,10 +9191,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="R95" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -9283,10 +9283,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R96" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S96" t="n">
         <v>0.02040816326530612</v>
@@ -9375,10 +9375,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R97" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S97" t="n">
         <v>0.02040816326530612</v>
@@ -9467,10 +9467,10 @@
         <v>3</v>
       </c>
       <c r="Q98" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R98" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S98" t="n">
         <v>0.0326530612244898</v>
@@ -9559,10 +9559,10 @@
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="R99" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S99" t="n">
         <v>0.04081632653061224</v>
@@ -9651,10 +9651,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R100" t="n">
-        <v>6.4</v>
+        <v>1.28</v>
       </c>
       <c r="S100" t="n">
         <v>0.008979591836734694</v>
@@ -9743,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R101" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="S101" t="n">
         <v>0.004081632653061225</v>
@@ -9835,10 +9835,10 @@
         <v>1</v>
       </c>
       <c r="Q102" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R102" t="n">
-        <v>12.8</v>
+        <v>2.56</v>
       </c>
       <c r="S102" t="n">
         <v>0.0326530612244898</v>
@@ -9927,10 +9927,10 @@
         <v>1</v>
       </c>
       <c r="Q103" t="n">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="R103" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="S103" t="n">
         <v>0.02040816326530612</v>
@@ -10019,10 +10019,10 @@
         <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R104" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S104" t="n">
         <v>0.04081632653061224</v>
@@ -10111,10 +10111,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="R105" t="n">
-        <v>0.8</v>
+        <v>0.16</v>
       </c>
       <c r="S105" t="n">
         <v>0.08163265306122448</v>
@@ -10203,10 +10203,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="n">
-        <v>17.6</v>
+        <v>3.52</v>
       </c>
       <c r="R106" t="n">
-        <v>1.6</v>
+        <v>0.32</v>
       </c>
       <c r="S106" t="n">
         <v>0.04081632653061224</v>
@@ -10295,10 +10295,10 @@
         <v>1</v>
       </c>
       <c r="Q107" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="R107" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S107" t="n">
         <v>0.01224489795918367</v>
@@ -10387,10 +10387,10 @@
         <v>1</v>
       </c>
       <c r="Q108" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R108" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S108" t="n">
         <v>0.04081632653061224</v>
@@ -10479,10 +10479,10 @@
         <v>1</v>
       </c>
       <c r="Q109" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R109" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S109" t="n">
         <v>0.04081632653061224</v>
@@ -10571,10 +10571,10 @@
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R110" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
@@ -10663,10 +10663,10 @@
         <v>1</v>
       </c>
       <c r="Q111" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R111" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="S111" t="n">
         <v>0</v>
@@ -10755,10 +10755,10 @@
         <v>1</v>
       </c>
       <c r="Q112" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R112" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S112" t="n">
         <v>0.01224489795918367</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="Q113" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R113" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S113" t="n">
         <v>0.04897959183673469</v>
@@ -10939,10 +10939,10 @@
         <v>1</v>
       </c>
       <c r="Q114" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="R114" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S114" t="n">
         <v>0</v>
@@ -11031,10 +11031,10 @@
         <v>1</v>
       </c>
       <c r="Q115" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R115" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S115" t="n">
         <v>0.02040816326530612</v>
@@ -11123,10 +11123,10 @@
         <v>1</v>
       </c>
       <c r="Q116" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R116" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S116" t="n">
         <v>0.04938775510204081</v>
@@ -11215,10 +11215,10 @@
         <v>1</v>
       </c>
       <c r="Q117" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="R117" t="n">
-        <v>1.6</v>
+        <v>0.32</v>
       </c>
       <c r="S117" t="n">
         <v>0.02040816326530612</v>
@@ -11307,10 +11307,10 @@
         <v>1</v>
       </c>
       <c r="Q118" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R118" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
@@ -11399,10 +11399,10 @@
         <v>1</v>
       </c>
       <c r="Q119" t="n">
-        <v>9.600000000000001</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R119" t="n">
-        <v>0.7200000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="S119" t="n">
         <v>0.02040816326530612</v>
@@ -11491,10 +11491,10 @@
         <v>1</v>
       </c>
       <c r="Q120" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="R120" t="n">
-        <v>6.4</v>
+        <v>1.28</v>
       </c>
       <c r="S120" t="n">
         <v>0</v>
@@ -11583,10 +11583,10 @@
         <v>1</v>
       </c>
       <c r="Q121" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R121" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S121" t="n">
         <v>0.0326530612244898</v>
@@ -11675,10 +11675,10 @@
         <v>1</v>
       </c>
       <c r="Q122" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="R122" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S122" t="n">
         <v>0</v>
@@ -11767,10 +11767,10 @@
         <v>1</v>
       </c>
       <c r="Q123" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R123" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S123" t="n">
         <v>0.04081632653061224</v>
@@ -11859,10 +11859,10 @@
         <v>0</v>
       </c>
       <c r="Q124" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R124" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S124" t="n">
         <v>0.02448979591836735</v>
@@ -11951,10 +11951,10 @@
         <v>1</v>
       </c>
       <c r="Q125" t="n">
-        <v>24</v>
+        <v>4.8</v>
       </c>
       <c r="R125" t="n">
-        <v>3.2</v>
+        <v>0.64</v>
       </c>
       <c r="S125" t="n">
         <v>0.04081632653061224</v>
@@ -12043,10 +12043,10 @@
         <v>1</v>
       </c>
       <c r="Q126" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R126" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S126" t="n">
         <v>0.04081632653061224</v>
@@ -12135,10 +12135,10 @@
         <v>1</v>
       </c>
       <c r="Q127" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R127" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S127" t="n">
         <v>0.00816326530612245</v>
@@ -12227,10 +12227,10 @@
         <v>1</v>
       </c>
       <c r="Q128" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R128" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S128" t="n">
         <v>0.04897959183673469</v>
@@ -12319,10 +12319,10 @@
         <v>3</v>
       </c>
       <c r="Q129" t="n">
-        <v>25.104</v>
+        <v>6.276</v>
       </c>
       <c r="R129" t="n">
-        <v>4.432</v>
+        <v>1.108</v>
       </c>
       <c r="S129" t="n">
         <v>0.01142857142857143</v>
@@ -12411,10 +12411,10 @@
         <v>1</v>
       </c>
       <c r="Q130" t="n">
-        <v>20.16</v>
+        <v>5.04</v>
       </c>
       <c r="R130" t="n">
-        <v>10.4</v>
+        <v>2.6</v>
       </c>
       <c r="S130" t="n">
         <v>0.0163265306122449</v>
@@ -12503,10 +12503,10 @@
         <v>1</v>
       </c>
       <c r="Q131" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R131" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
@@ -12595,10 +12595,10 @@
         <v>1</v>
       </c>
       <c r="Q132" t="n">
-        <v>25.6</v>
+        <v>6.4</v>
       </c>
       <c r="R132" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="S132" t="n">
         <v>0.02040816326530612</v>
@@ -12687,10 +12687,10 @@
         <v>1</v>
       </c>
       <c r="Q133" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R133" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="S133" t="n">
         <v>0.03673469387755102</v>
@@ -12779,10 +12779,10 @@
         <v>1</v>
       </c>
       <c r="Q134" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R134" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S134" t="n">
         <v>0.04081632653061224</v>
@@ -12871,10 +12871,10 @@
         <v>1</v>
       </c>
       <c r="Q135" t="n">
-        <v>18.768</v>
+        <v>4.692</v>
       </c>
       <c r="R135" t="n">
-        <v>3.28</v>
+        <v>0.82</v>
       </c>
       <c r="S135" t="n">
         <v>0.03469387755102041</v>
@@ -12963,10 +12963,10 @@
         <v>1</v>
       </c>
       <c r="Q136" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R136" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S136" t="n">
         <v>0.008979591836734694</v>
@@ -13055,10 +13055,10 @@
         <v>1</v>
       </c>
       <c r="Q137" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="R137" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S137" t="n">
         <v>0.00816326530612245</v>
@@ -13147,10 +13147,10 @@
         <v>1</v>
       </c>
       <c r="Q138" t="n">
-        <v>27.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="R138" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S138" t="n">
         <v>0.04081632653061224</v>
@@ -13239,10 +13239,10 @@
         <v>1</v>
       </c>
       <c r="Q139" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R139" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S139" t="n">
         <v>0.0326530612244898</v>
@@ -13331,10 +13331,10 @@
         <v>1</v>
       </c>
       <c r="Q140" t="n">
-        <v>20.48</v>
+        <v>6.826666666666668</v>
       </c>
       <c r="R140" t="n">
-        <v>3.2</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="S140" t="n">
         <v>0.04897959183673469</v>
@@ -13423,10 +13423,10 @@
         <v>1</v>
       </c>
       <c r="Q141" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R141" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S141" t="n">
         <v>0.00816326530612245</v>
@@ -13515,10 +13515,10 @@
         <v>1</v>
       </c>
       <c r="Q142" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R142" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S142" t="n">
         <v>0.06122448979591837</v>
@@ -13607,10 +13607,10 @@
         <v>0</v>
       </c>
       <c r="Q143" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R143" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S143" t="n">
         <v>0.08163265306122448</v>
@@ -13699,10 +13699,10 @@
         <v>1</v>
       </c>
       <c r="Q144" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R144" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S144" t="n">
         <v>0.0326530612244898</v>
@@ -13791,10 +13791,10 @@
         <v>1</v>
       </c>
       <c r="Q145" t="n">
-        <v>14.24</v>
+        <v>3.56</v>
       </c>
       <c r="R145" t="n">
-        <v>2.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S145" t="n">
         <v>0</v>
@@ -13883,10 +13883,10 @@
         <v>1</v>
       </c>
       <c r="Q146" t="n">
-        <v>24.96</v>
+        <v>6.24</v>
       </c>
       <c r="R146" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S146" t="n">
         <v>0.02040816326530612</v>
@@ -13975,10 +13975,10 @@
         <v>1</v>
       </c>
       <c r="Q147" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R147" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S147" t="n">
         <v>0</v>
@@ -14067,10 +14067,10 @@
         <v>1</v>
       </c>
       <c r="Q148" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R148" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S148" t="n">
         <v>0.0326530612244898</v>
@@ -14159,10 +14159,10 @@
         <v>1</v>
       </c>
       <c r="Q149" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R149" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S149" t="n">
         <v>0.04489795918367347</v>
@@ -14251,10 +14251,10 @@
         <v>0</v>
       </c>
       <c r="Q150" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R150" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="S150" t="n">
         <v>0.02040816326530612</v>
@@ -14343,10 +14343,10 @@
         <v>1</v>
       </c>
       <c r="Q151" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R151" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S151" t="n">
         <v>0.02448979591836735</v>
@@ -14435,10 +14435,10 @@
         <v>1</v>
       </c>
       <c r="Q152" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="R152" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S152" t="n">
         <v>0.00816326530612245</v>
@@ -14527,10 +14527,10 @@
         <v>1</v>
       </c>
       <c r="Q153" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R153" t="n">
-        <v>11.2</v>
+        <v>2.24</v>
       </c>
       <c r="S153" t="n">
         <v>0.08163265306122448</v>
@@ -14619,10 +14619,10 @@
         <v>1</v>
       </c>
       <c r="Q154" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R154" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S154" t="n">
         <v>0.04897959183673469</v>
@@ -14711,10 +14711,10 @@
         <v>1</v>
       </c>
       <c r="Q155" t="n">
-        <v>28.8</v>
+        <v>5.76</v>
       </c>
       <c r="R155" t="n">
-        <v>3.2</v>
+        <v>0.64</v>
       </c>
       <c r="S155" t="n">
         <v>0.04897959183673469</v>
@@ -14803,10 +14803,10 @@
         <v>1</v>
       </c>
       <c r="Q156" t="n">
-        <v>27.984</v>
+        <v>6.996</v>
       </c>
       <c r="R156" t="n">
-        <v>5.600000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="S156" t="n">
         <v>0</v>
@@ -14895,10 +14895,10 @@
         <v>0</v>
       </c>
       <c r="Q157" t="n">
-        <v>28.8</v>
+        <v>5.76</v>
       </c>
       <c r="R157" t="n">
-        <v>3.2</v>
+        <v>0.64</v>
       </c>
       <c r="S157" t="n">
         <v>0.01224489795918367</v>
@@ -14987,10 +14987,10 @@
         <v>1</v>
       </c>
       <c r="Q158" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R158" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S158" t="n">
         <v>0.04081632653061224</v>
@@ -15079,10 +15079,10 @@
         <v>1</v>
       </c>
       <c r="Q159" t="n">
-        <v>16.8</v>
+        <v>4.2</v>
       </c>
       <c r="R159" t="n">
-        <v>5.120000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="S159" t="n">
         <v>0.0363265306122449</v>
@@ -15171,10 +15171,10 @@
         <v>1</v>
       </c>
       <c r="Q160" t="n">
-        <v>22.4</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="R160" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S160" t="n">
         <v>0</v>
@@ -15263,10 +15263,10 @@
         <v>1</v>
       </c>
       <c r="Q161" t="n">
-        <v>19.68</v>
+        <v>4.920000000000001</v>
       </c>
       <c r="R161" t="n">
-        <v>5.600000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="S161" t="n">
         <v>0.02040816326530612</v>
@@ -15355,10 +15355,10 @@
         <v>1</v>
       </c>
       <c r="Q162" t="n">
-        <v>17.76</v>
+        <v>4.44</v>
       </c>
       <c r="R162" t="n">
-        <v>10.56</v>
+        <v>2.64</v>
       </c>
       <c r="S162" t="n">
         <v>0.0326530612244898</v>
@@ -15447,10 +15447,10 @@
         <v>1</v>
       </c>
       <c r="Q163" t="n">
-        <v>30.4</v>
+        <v>6.08</v>
       </c>
       <c r="R163" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="S163" t="n">
         <v>0</v>
@@ -15539,10 +15539,10 @@
         <v>1</v>
       </c>
       <c r="Q164" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R164" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S164" t="n">
         <v>0</v>
@@ -15631,10 +15631,10 @@
         <v>1</v>
       </c>
       <c r="Q165" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R165" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="S165" t="n">
         <v>0.02448979591836735</v>
@@ -15723,10 +15723,10 @@
         <v>0</v>
       </c>
       <c r="Q166" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R166" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S166" t="n">
         <v>0.04081632653061224</v>
@@ -15815,10 +15815,10 @@
         <v>1</v>
       </c>
       <c r="Q167" t="n">
-        <v>27.2</v>
+        <v>5.44</v>
       </c>
       <c r="R167" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S167" t="n">
         <v>0.02040816326530612</v>
@@ -15907,10 +15907,10 @@
         <v>1</v>
       </c>
       <c r="Q168" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R168" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S168" t="n">
         <v>0.0326530612244898</v>
@@ -15999,10 +15999,10 @@
         <v>1</v>
       </c>
       <c r="Q169" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R169" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S169" t="n">
         <v>0.08163265306122448</v>
@@ -16091,10 +16091,10 @@
         <v>1</v>
       </c>
       <c r="Q170" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R170" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S170" t="n">
         <v>0</v>
@@ -16183,10 +16183,10 @@
         <v>1</v>
       </c>
       <c r="Q171" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R171" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S171" t="n">
         <v>0.0163265306122449</v>
@@ -16275,10 +16275,10 @@
         <v>1</v>
       </c>
       <c r="Q172" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R172" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S172" t="n">
         <v>0.02040816326530612</v>
@@ -16367,10 +16367,10 @@
         <v>1</v>
       </c>
       <c r="Q173" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R173" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S173" t="n">
         <v>0.0326530612244898</v>
@@ -16459,10 +16459,10 @@
         <v>1</v>
       </c>
       <c r="Q174" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R174" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S174" t="n">
         <v>0.04244897959183674</v>
@@ -16551,10 +16551,10 @@
         <v>1</v>
       </c>
       <c r="Q175" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="R175" t="n">
-        <v>2.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S175" t="n">
         <v>0</v>
@@ -16643,10 +16643,10 @@
         <v>1</v>
       </c>
       <c r="Q176" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R176" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S176" t="n">
         <v>0.0326530612244898</v>
@@ -16735,10 +16735,10 @@
         <v>1</v>
       </c>
       <c r="Q177" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R177" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S177" t="n">
         <v>0.06122448979591837</v>
@@ -16827,10 +16827,10 @@
         <v>0</v>
       </c>
       <c r="Q178" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="R178" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S178" t="n">
         <v>0.0326530612244898</v>
@@ -16919,10 +16919,10 @@
         <v>1</v>
       </c>
       <c r="Q179" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R179" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="S179" t="n">
         <v>0</v>
@@ -17011,10 +17011,10 @@
         <v>1</v>
       </c>
       <c r="Q180" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="R180" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="S180" t="n">
         <v>0</v>
@@ -17103,10 +17103,10 @@
         <v>1</v>
       </c>
       <c r="Q181" t="n">
-        <v>19.84</v>
+        <v>6.613333333333334</v>
       </c>
       <c r="R181" t="n">
-        <v>6.720000000000001</v>
+        <v>2.24</v>
       </c>
       <c r="S181" t="n">
         <v>0.02448979591836735</v>
@@ -17195,10 +17195,10 @@
         <v>1</v>
       </c>
       <c r="Q182" t="n">
-        <v>25.6</v>
+        <v>5.12</v>
       </c>
       <c r="R182" t="n">
-        <v>5.600000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="S182" t="n">
         <v>0</v>
@@ -17287,10 +17287,10 @@
         <v>2</v>
       </c>
       <c r="Q183" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R183" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="S183" t="n">
         <v>0.04081632653061224</v>
@@ -17379,10 +17379,10 @@
         <v>1</v>
       </c>
       <c r="Q184" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R184" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S184" t="n">
         <v>0.04081632653061224</v>
@@ -17471,10 +17471,10 @@
         <v>1</v>
       </c>
       <c r="Q185" t="n">
-        <v>18.24</v>
+        <v>3.648000000000001</v>
       </c>
       <c r="R185" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="S185" t="n">
         <v>0.04081632653061224</v>
@@ -17563,10 +17563,10 @@
         <v>1</v>
       </c>
       <c r="Q186" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R186" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S186" t="n">
         <v>0.04081632653061224</v>
@@ -17655,10 +17655,10 @@
         <v>1</v>
       </c>
       <c r="Q187" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R187" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S187" t="n">
         <v>0.06122448979591837</v>
@@ -17747,10 +17747,10 @@
         <v>1</v>
       </c>
       <c r="Q188" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R188" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S188" t="n">
         <v>0</v>
@@ -17839,10 +17839,10 @@
         <v>1</v>
       </c>
       <c r="Q189" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R189" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S189" t="n">
         <v>0.02857142857142857</v>
@@ -17931,10 +17931,10 @@
         <v>0</v>
       </c>
       <c r="Q190" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R190" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S190" t="n">
         <v>0.03061224489795918</v>
@@ -18023,10 +18023,10 @@
         <v>1</v>
       </c>
       <c r="Q191" t="n">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="R191" t="n">
-        <v>8</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S191" t="n">
         <v>0.04081632653061224</v>
@@ -18115,10 +18115,10 @@
         <v>1</v>
       </c>
       <c r="Q192" t="n">
-        <v>14.4</v>
+        <v>2.88</v>
       </c>
       <c r="R192" t="n">
-        <v>6.4</v>
+        <v>1.28</v>
       </c>
       <c r="S192" t="n">
         <v>0</v>
@@ -18207,10 +18207,10 @@
         <v>1</v>
       </c>
       <c r="Q193" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R193" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S193" t="n">
         <v>0.02857142857142857</v>
@@ -18299,10 +18299,10 @@
         <v>1</v>
       </c>
       <c r="Q194" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R194" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S194" t="n">
         <v>0.00816326530612245</v>
@@ -18391,10 +18391,10 @@
         <v>1</v>
       </c>
       <c r="Q195" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R195" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S195" t="n">
         <v>0.0653061224489796</v>
@@ -18483,10 +18483,10 @@
         <v>1</v>
       </c>
       <c r="Q196" t="n">
-        <v>29.6</v>
+        <v>5.92</v>
       </c>
       <c r="R196" t="n">
-        <v>8.959999999999999</v>
+        <v>1.792</v>
       </c>
       <c r="S196" t="n">
         <v>0</v>
@@ -18575,10 +18575,10 @@
         <v>1</v>
       </c>
       <c r="Q197" t="n">
-        <v>34.08000000000001</v>
+        <v>6.816000000000001</v>
       </c>
       <c r="R197" t="n">
-        <v>11.616</v>
+        <v>2.3232</v>
       </c>
       <c r="S197" t="n">
         <v>0.06040816326530613</v>
@@ -18667,10 +18667,10 @@
         <v>1</v>
       </c>
       <c r="Q198" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R198" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="S198" t="n">
         <v>0.0326530612244898</v>
@@ -18759,10 +18759,10 @@
         <v>1</v>
       </c>
       <c r="Q199" t="n">
-        <v>16.32</v>
+        <v>3.264</v>
       </c>
       <c r="R199" t="n">
-        <v>8.48</v>
+        <v>1.696</v>
       </c>
       <c r="S199" t="n">
         <v>0.02040816326530612</v>
@@ -18851,10 +18851,10 @@
         <v>1</v>
       </c>
       <c r="Q200" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R200" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S200" t="n">
         <v>0.1020408163265306</v>
@@ -18943,10 +18943,10 @@
         <v>1</v>
       </c>
       <c r="Q201" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R201" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="S201" t="n">
         <v>0.02040816326530612</v>
@@ -19035,10 +19035,10 @@
         <v>1</v>
       </c>
       <c r="Q202" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R202" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S202" t="n">
         <v>0.0326530612244898</v>
@@ -19127,10 +19127,10 @@
         <v>1</v>
       </c>
       <c r="Q203" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R203" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S203" t="n">
         <v>0.08163265306122448</v>
@@ -19219,10 +19219,10 @@
         <v>1</v>
       </c>
       <c r="Q204" t="n">
-        <v>25.6</v>
+        <v>6.4</v>
       </c>
       <c r="R204" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S204" t="n">
         <v>0.06122448979591837</v>
@@ -19311,10 +19311,10 @@
         <v>1</v>
       </c>
       <c r="Q205" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R205" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S205" t="n">
         <v>0.02040816326530612</v>
@@ -19403,10 +19403,10 @@
         <v>1</v>
       </c>
       <c r="Q206" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R206" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S206" t="n">
         <v>0.02040816326530612</v>
@@ -19495,10 +19495,10 @@
         <v>0</v>
       </c>
       <c r="Q207" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R207" t="n">
-        <v>1.6</v>
+        <v>0.32</v>
       </c>
       <c r="S207" t="n">
         <v>0.0326530612244898</v>
@@ -19587,10 +19587,10 @@
         <v>1</v>
       </c>
       <c r="Q208" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R208" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S208" t="n">
         <v>0.08163265306122448</v>
@@ -19679,10 +19679,10 @@
         <v>1</v>
       </c>
       <c r="Q209" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R209" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S209" t="n">
         <v>0.04897959183673469</v>
@@ -19771,10 +19771,10 @@
         <v>1</v>
       </c>
       <c r="Q210" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R210" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S210" t="n">
         <v>0.04081632653061224</v>
@@ -19863,10 +19863,10 @@
         <v>1</v>
       </c>
       <c r="Q211" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R211" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S211" t="n">
         <v>0.04081632653061224</v>
@@ -19955,10 +19955,10 @@
         <v>1</v>
       </c>
       <c r="Q212" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R212" t="n">
-        <v>16</v>
+        <v>3.2</v>
       </c>
       <c r="S212" t="n">
         <v>0.08163265306122448</v>
@@ -20047,10 +20047,10 @@
         <v>3</v>
       </c>
       <c r="Q213" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R213" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S213" t="n">
         <v>0.04081632653061224</v>
@@ -20139,10 +20139,10 @@
         <v>1</v>
       </c>
       <c r="Q214" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="R214" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S214" t="n">
         <v>0.04081632653061224</v>
@@ -20231,10 +20231,10 @@
         <v>1</v>
       </c>
       <c r="Q215" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R215" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S215" t="n">
         <v>0.02040816326530612</v>
@@ -20323,10 +20323,10 @@
         <v>0</v>
       </c>
       <c r="Q216" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R216" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S216" t="n">
         <v>0.0326530612244898</v>
@@ -20415,10 +20415,10 @@
         <v>2</v>
       </c>
       <c r="Q217" t="n">
-        <v>19.2</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="R217" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="S217" t="n">
         <v>0.0326530612244898</v>
@@ -20507,10 +20507,10 @@
         <v>1</v>
       </c>
       <c r="Q218" t="n">
-        <v>15.984</v>
+        <v>3.996</v>
       </c>
       <c r="R218" t="n">
-        <v>3.744</v>
+        <v>0.9359999999999999</v>
       </c>
       <c r="S218" t="n">
         <v>0.02040816326530612</v>
@@ -20599,10 +20599,10 @@
         <v>1</v>
       </c>
       <c r="Q219" t="n">
-        <v>32.84800000000001</v>
+        <v>8.212000000000002</v>
       </c>
       <c r="R219" t="n">
-        <v>10.848</v>
+        <v>2.712</v>
       </c>
       <c r="S219" t="n">
         <v>0.02857142857142857</v>
@@ -20691,10 +20691,10 @@
         <v>1</v>
       </c>
       <c r="Q220" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R220" t="n">
-        <v>2.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S220" t="n">
         <v>0</v>
@@ -20783,10 +20783,10 @@
         <v>1</v>
       </c>
       <c r="Q221" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R221" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S221" t="n">
         <v>0.02040816326530612</v>
@@ -20875,10 +20875,10 @@
         <v>0</v>
       </c>
       <c r="Q222" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="R222" t="n">
-        <v>1.92</v>
+        <v>0.48</v>
       </c>
       <c r="S222" t="n">
         <v>0.04081632653061224</v>
@@ -20967,10 +20967,10 @@
         <v>1</v>
       </c>
       <c r="Q223" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R223" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S223" t="n">
         <v>0.01224489795918367</v>
@@ -21059,10 +21059,10 @@
         <v>1</v>
       </c>
       <c r="Q224" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R224" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S224" t="n">
         <v>0.02857142857142857</v>
@@ -21151,10 +21151,10 @@
         <v>1</v>
       </c>
       <c r="Q225" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R225" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S225" t="n">
         <v>0.0326530612244898</v>
@@ -21243,10 +21243,10 @@
         <v>1</v>
       </c>
       <c r="Q226" t="n">
-        <v>28.96</v>
+        <v>7.240000000000001</v>
       </c>
       <c r="R226" t="n">
-        <v>1.76</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="S226" t="n">
         <v>0.01224489795918367</v>
@@ -21335,10 +21335,10 @@
         <v>1</v>
       </c>
       <c r="Q227" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R227" t="n">
-        <v>1.28</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="S227" t="n">
         <v>0.0326530612244898</v>
@@ -21427,10 +21427,10 @@
         <v>1</v>
       </c>
       <c r="Q228" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R228" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S228" t="n">
         <v>0.0326530612244898</v>
@@ -21519,10 +21519,10 @@
         <v>1</v>
       </c>
       <c r="Q229" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R229" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S229" t="n">
         <v>0.06122448979591837</v>
@@ -21611,10 +21611,10 @@
         <v>1</v>
       </c>
       <c r="Q230" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R230" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S230" t="n">
         <v>0.08163265306122448</v>
@@ -21703,10 +21703,10 @@
         <v>1</v>
       </c>
       <c r="Q231" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="R231" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S231" t="n">
         <v>0.04081632653061224</v>
@@ -21795,10 +21795,10 @@
         <v>1</v>
       </c>
       <c r="Q232" t="n">
-        <v>25.6</v>
+        <v>5.12</v>
       </c>
       <c r="R232" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S232" t="n">
         <v>0.0326530612244898</v>
@@ -21887,10 +21887,10 @@
         <v>1</v>
       </c>
       <c r="Q233" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R233" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S233" t="n">
         <v>0.04081632653061224</v>
@@ -21979,10 +21979,10 @@
         <v>1</v>
       </c>
       <c r="Q234" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R234" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S234" t="n">
         <v>0.0326530612244898</v>
@@ -22071,10 +22071,10 @@
         <v>0</v>
       </c>
       <c r="Q235" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R235" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S235" t="n">
         <v>0.04897959183673469</v>
@@ -22163,10 +22163,10 @@
         <v>1</v>
       </c>
       <c r="Q236" t="n">
-        <v>25.28</v>
+        <v>6.32</v>
       </c>
       <c r="R236" t="n">
-        <v>2.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S236" t="n">
         <v>0.03673469387755102</v>
@@ -22255,10 +22255,10 @@
         <v>1</v>
       </c>
       <c r="Q237" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="R237" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S237" t="n">
         <v>0.02857142857142857</v>
@@ -22347,10 +22347,10 @@
         <v>1</v>
       </c>
       <c r="Q238" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R238" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S238" t="n">
         <v>0.04081632653061224</v>
@@ -22439,10 +22439,10 @@
         <v>1</v>
       </c>
       <c r="Q239" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R239" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S239" t="n">
         <v>0.02040816326530612</v>
@@ -22531,10 +22531,10 @@
         <v>1</v>
       </c>
       <c r="Q240" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R240" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S240" t="n">
         <v>0.00816326530612245</v>
@@ -22623,10 +22623,10 @@
         <v>1</v>
       </c>
       <c r="Q241" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R241" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S241" t="n">
         <v>0.04081632653061224</v>
@@ -22715,10 +22715,10 @@
         <v>1</v>
       </c>
       <c r="Q242" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="R242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S242" t="n">
         <v>0.02040816326530612</v>
@@ -22807,10 +22807,10 @@
         <v>0</v>
       </c>
       <c r="Q243" t="n">
-        <v>12.24</v>
+        <v>3.06</v>
       </c>
       <c r="R243" t="n">
-        <v>2.72</v>
+        <v>0.68</v>
       </c>
       <c r="S243" t="n">
         <v>0.06816326530612245</v>
@@ -22899,10 +22899,10 @@
         <v>1</v>
       </c>
       <c r="Q244" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="R244" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="S244" t="n">
         <v>0.01224489795918367</v>
@@ -22991,10 +22991,10 @@
         <v>1</v>
       </c>
       <c r="Q245" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="R245" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S245" t="n">
         <v>0.0163265306122449</v>
@@ -23083,10 +23083,10 @@
         <v>1</v>
       </c>
       <c r="Q246" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R246" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S246" t="n">
         <v>0.04081632653061224</v>
@@ -23175,10 +23175,10 @@
         <v>1</v>
       </c>
       <c r="Q247" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R247" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S247" t="n">
         <v>0.0326530612244898</v>
@@ -23267,10 +23267,10 @@
         <v>1</v>
       </c>
       <c r="Q248" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R248" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S248" t="n">
         <v>0.02040816326530612</v>
@@ -23359,10 +23359,10 @@
         <v>1</v>
       </c>
       <c r="Q249" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R249" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S249" t="n">
         <v>0.04081632653061224</v>
@@ -23451,10 +23451,10 @@
         <v>1</v>
       </c>
       <c r="Q250" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R250" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S250" t="n">
         <v>0.06122448979591837</v>
@@ -23543,10 +23543,10 @@
         <v>1</v>
       </c>
       <c r="Q251" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R251" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S251" t="n">
         <v>0.02857142857142857</v>
@@ -23635,10 +23635,10 @@
         <v>0</v>
       </c>
       <c r="Q252" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R252" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S252" t="n">
         <v>0.02489795918367347</v>
@@ -23727,10 +23727,10 @@
         <v>1</v>
       </c>
       <c r="Q253" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R253" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S253" t="n">
         <v>0.0820408163265306</v>
@@ -23819,10 +23819,10 @@
         <v>1</v>
       </c>
       <c r="Q254" t="n">
-        <v>16.272</v>
+        <v>4.068000000000001</v>
       </c>
       <c r="R254" t="n">
-        <v>8.416</v>
+        <v>2.104</v>
       </c>
       <c r="S254" t="n">
         <v>0.05061224489795918</v>
@@ -23911,10 +23911,10 @@
         <v>1</v>
       </c>
       <c r="Q255" t="n">
-        <v>17.984</v>
+        <v>4.496</v>
       </c>
       <c r="R255" t="n">
-        <v>7.008</v>
+        <v>1.752</v>
       </c>
       <c r="S255" t="n">
         <v>0.0363265306122449</v>
@@ -24003,10 +24003,10 @@
         <v>1</v>
       </c>
       <c r="Q256" t="n">
-        <v>30.208</v>
+        <v>7.552</v>
       </c>
       <c r="R256" t="n">
-        <v>6.208</v>
+        <v>1.552</v>
       </c>
       <c r="S256" t="n">
         <v>0.04081632653061224</v>
@@ -24095,10 +24095,10 @@
         <v>1</v>
       </c>
       <c r="Q257" t="n">
-        <v>14.88</v>
+        <v>3.720000000000001</v>
       </c>
       <c r="R257" t="n">
-        <v>8.48</v>
+        <v>2.12</v>
       </c>
       <c r="S257" t="n">
         <v>0.07346938775510205</v>
@@ -24187,10 +24187,10 @@
         <v>1</v>
       </c>
       <c r="Q258" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="R258" t="n">
-        <v>6.4</v>
+        <v>1.28</v>
       </c>
       <c r="S258" t="n">
         <v>0.08163265306122448</v>
@@ -24279,10 +24279,10 @@
         <v>1</v>
       </c>
       <c r="Q259" t="n">
-        <v>27.536</v>
+        <v>6.884</v>
       </c>
       <c r="R259" t="n">
-        <v>2.304</v>
+        <v>0.576</v>
       </c>
       <c r="S259" t="n">
         <v>0.04897959183673469</v>
@@ -24371,10 +24371,10 @@
         <v>1</v>
       </c>
       <c r="Q260" t="n">
-        <v>31.52</v>
+        <v>7.88</v>
       </c>
       <c r="R260" t="n">
-        <v>7.359999999999999</v>
+        <v>1.84</v>
       </c>
       <c r="S260" t="n">
         <v>0.02857142857142857</v>
@@ -24463,10 +24463,10 @@
         <v>1</v>
       </c>
       <c r="Q261" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R261" t="n">
-        <v>6.4</v>
+        <v>1.28</v>
       </c>
       <c r="S261" t="n">
         <v>0.0163265306122449</v>
@@ -24555,10 +24555,10 @@
         <v>1</v>
       </c>
       <c r="Q262" t="n">
-        <v>20.544</v>
+        <v>5.136</v>
       </c>
       <c r="R262" t="n">
-        <v>0.576</v>
+        <v>0.144</v>
       </c>
       <c r="S262" t="n">
         <v>0.02285714285714286</v>
@@ -24647,10 +24647,10 @@
         <v>1</v>
       </c>
       <c r="Q263" t="n">
-        <v>21.76</v>
+        <v>5.44</v>
       </c>
       <c r="R263" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S263" t="n">
         <v>0.1061224489795918</v>
@@ -24739,10 +24739,10 @@
         <v>1</v>
       </c>
       <c r="Q264" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="R264" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S264" t="n">
         <v>0.02857142857142857</v>
@@ -24831,10 +24831,10 @@
         <v>1</v>
       </c>
       <c r="Q265" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R265" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S265" t="n">
         <v>0.02040816326530612</v>
@@ -24923,10 +24923,10 @@
         <v>1</v>
       </c>
       <c r="Q266" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R266" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S266" t="n">
         <v>0.0326530612244898</v>
@@ -25015,10 +25015,10 @@
         <v>1</v>
       </c>
       <c r="Q267" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R267" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S267" t="n">
         <v>0.02040816326530612</v>
@@ -25107,10 +25107,10 @@
         <v>1</v>
       </c>
       <c r="Q268" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R268" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S268" t="n">
         <v>0</v>
@@ -25199,10 +25199,10 @@
         <v>1</v>
       </c>
       <c r="Q269" t="n">
-        <v>17.44</v>
+        <v>4.36</v>
       </c>
       <c r="R269" t="n">
-        <v>9.76</v>
+        <v>2.44</v>
       </c>
       <c r="S269" t="n">
         <v>0.0653061224489796</v>
@@ -25291,10 +25291,10 @@
         <v>1</v>
       </c>
       <c r="Q270" t="n">
-        <v>13.504</v>
+        <v>3.376</v>
       </c>
       <c r="R270" t="n">
-        <v>2.624</v>
+        <v>0.656</v>
       </c>
       <c r="S270" t="n">
         <v>0.03142857142857143</v>
@@ -25383,10 +25383,10 @@
         <v>1</v>
       </c>
       <c r="Q271" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="R271" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S271" t="n">
         <v>0.06122448979591837</v>
@@ -25475,10 +25475,10 @@
         <v>1</v>
       </c>
       <c r="Q272" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R272" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S272" t="n">
         <v>0.004081632653061225</v>
@@ -25567,10 +25567,10 @@
         <v>1</v>
       </c>
       <c r="Q273" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R273" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S273" t="n">
         <v>0.02448979591836735</v>
@@ -25659,10 +25659,10 @@
         <v>1</v>
       </c>
       <c r="Q274" t="n">
-        <v>19.2</v>
+        <v>3.840000000000001</v>
       </c>
       <c r="R274" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="S274" t="n">
         <v>0.0326530612244898</v>
@@ -25751,10 +25751,10 @@
         <v>1</v>
       </c>
       <c r="Q275" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="R275" t="n">
-        <v>2.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S275" t="n">
         <v>0.0163265306122449</v>
@@ -25843,10 +25843,10 @@
         <v>1</v>
       </c>
       <c r="Q276" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R276" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S276" t="n">
         <v>0.02775510204081633</v>
@@ -25935,10 +25935,10 @@
         <v>1</v>
       </c>
       <c r="Q277" t="n">
-        <v>16.16</v>
+        <v>4.04</v>
       </c>
       <c r="R277" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S277" t="n">
         <v>0.02040816326530612</v>
@@ -26027,10 +26027,10 @@
         <v>1</v>
       </c>
       <c r="Q278" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R278" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S278" t="n">
         <v>0.04081632653061224</v>
@@ -26119,10 +26119,10 @@
         <v>1</v>
       </c>
       <c r="Q279" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R279" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S279" t="n">
         <v>0.04081632653061224</v>
@@ -26211,10 +26211,10 @@
         <v>1</v>
       </c>
       <c r="Q280" t="n">
-        <v>29.312</v>
+        <v>5.8624</v>
       </c>
       <c r="R280" t="n">
-        <v>4.096</v>
+        <v>0.8192</v>
       </c>
       <c r="S280" t="n">
         <v>0.03183673469387755</v>
@@ -26303,10 +26303,10 @@
         <v>1</v>
       </c>
       <c r="Q281" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R281" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S281" t="n">
         <v>0.06122448979591837</v>
@@ -26395,10 +26395,10 @@
         <v>1</v>
       </c>
       <c r="Q282" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R282" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S282" t="n">
         <v>0.08163265306122448</v>
@@ -26487,10 +26487,10 @@
         <v>1</v>
       </c>
       <c r="Q283" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R283" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S283" t="n">
         <v>0.02040816326530612</v>
@@ -26579,10 +26579,10 @@
         <v>1</v>
       </c>
       <c r="Q284" t="n">
-        <v>19.2</v>
+        <v>6.400000000000001</v>
       </c>
       <c r="R284" t="n">
-        <v>4.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="S284" t="n">
         <v>0.03673469387755102</v>
@@ -26671,10 +26671,10 @@
         <v>1</v>
       </c>
       <c r="Q285" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R285" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S285" t="n">
         <v>0.04081632653061224</v>
@@ -26763,10 +26763,10 @@
         <v>1</v>
       </c>
       <c r="Q286" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R286" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S286" t="n">
         <v>0.02448979591836735</v>
@@ -26855,10 +26855,10 @@
         <v>1</v>
       </c>
       <c r="Q287" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R287" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S287" t="n">
         <v>0.04081632653061224</v>
@@ -26947,10 +26947,10 @@
         <v>1</v>
       </c>
       <c r="Q288" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R288" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S288" t="n">
         <v>0.04081632653061224</v>
@@ -27039,10 +27039,10 @@
         <v>1</v>
       </c>
       <c r="Q289" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R289" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S289" t="n">
         <v>0.06122448979591837</v>
@@ -27131,10 +27131,10 @@
         <v>1</v>
       </c>
       <c r="Q290" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R290" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S290" t="n">
         <v>0.06122448979591837</v>
@@ -27223,10 +27223,10 @@
         <v>1</v>
       </c>
       <c r="Q291" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R291" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S291" t="n">
         <v>0.02040816326530612</v>
@@ -27315,10 +27315,10 @@
         <v>0</v>
       </c>
       <c r="Q292" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R292" t="n">
-        <v>2.56</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="S292" t="n">
         <v>0.02040816326530612</v>
@@ -27407,10 +27407,10 @@
         <v>0</v>
       </c>
       <c r="Q293" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="R293" t="n">
-        <v>4.800000000000001</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="S293" t="n">
         <v>0.08163265306122448</v>
@@ -27499,10 +27499,10 @@
         <v>1</v>
       </c>
       <c r="Q294" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R294" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S294" t="n">
         <v>0.0326530612244898</v>
@@ -27591,10 +27591,10 @@
         <v>1</v>
       </c>
       <c r="Q295" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R295" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S295" t="n">
         <v>0.0326530612244898</v>
@@ -27683,10 +27683,10 @@
         <v>1</v>
       </c>
       <c r="Q296" t="n">
-        <v>17.792</v>
+        <v>4.448</v>
       </c>
       <c r="R296" t="n">
-        <v>13.28</v>
+        <v>3.32</v>
       </c>
       <c r="S296" t="n">
         <v>0.05020408163265306</v>
@@ -27775,10 +27775,10 @@
         <v>1</v>
       </c>
       <c r="Q297" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R297" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S297" t="n">
         <v>0.04897959183673469</v>
@@ -27867,10 +27867,10 @@
         <v>1</v>
       </c>
       <c r="Q298" t="n">
-        <v>27.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="R298" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S298" t="n">
         <v>0.04081632653061224</v>
@@ -27959,10 +27959,10 @@
         <v>1</v>
       </c>
       <c r="Q299" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R299" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S299" t="n">
         <v>0.08163265306122448</v>
@@ -28051,10 +28051,10 @@
         <v>1</v>
       </c>
       <c r="Q300" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R300" t="n">
-        <v>11.2</v>
+        <v>2.8</v>
       </c>
       <c r="S300" t="n">
         <v>0.08163265306122448</v>
@@ -28143,10 +28143,10 @@
         <v>1</v>
       </c>
       <c r="Q301" t="n">
-        <v>13.36</v>
+        <v>3.34</v>
       </c>
       <c r="R301" t="n">
-        <v>4.576</v>
+        <v>1.144</v>
       </c>
       <c r="S301" t="n">
         <v>0.05551020408163266</v>
@@ -28235,10 +28235,10 @@
         <v>1</v>
       </c>
       <c r="Q302" t="n">
-        <v>18.16</v>
+        <v>4.54</v>
       </c>
       <c r="R302" t="n">
-        <v>4.56</v>
+        <v>1.14</v>
       </c>
       <c r="S302" t="n">
         <v>0.01877551020408163</v>
@@ -28327,10 +28327,10 @@
         <v>1</v>
       </c>
       <c r="Q303" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R303" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S303" t="n">
         <v>0.04081632653061224</v>
@@ -28419,10 +28419,10 @@
         <v>1</v>
       </c>
       <c r="Q304" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="R304" t="n">
-        <v>2.72</v>
+        <v>0.68</v>
       </c>
       <c r="S304" t="n">
         <v>0.03102040816326531</v>
@@ -28511,10 +28511,10 @@
         <v>0</v>
       </c>
       <c r="Q305" t="n">
-        <v>16.32</v>
+        <v>4.08</v>
       </c>
       <c r="R305" t="n">
-        <v>6.56</v>
+        <v>1.64</v>
       </c>
       <c r="S305" t="n">
         <v>0.0326530612244898</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="Q306" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R306" t="n">
-        <v>4.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="S306" t="n">
         <v>0.04081632653061224</v>
@@ -28695,10 +28695,10 @@
         <v>0</v>
       </c>
       <c r="Q307" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R307" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S307" t="n">
         <v>0.04081632653061224</v>
@@ -28787,10 +28787,10 @@
         <v>1</v>
       </c>
       <c r="Q308" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R308" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S308" t="n">
         <v>0.08571428571428572</v>
@@ -28879,10 +28879,10 @@
         <v>1</v>
       </c>
       <c r="Q309" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R309" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S309" t="n">
         <v>0.06122448979591837</v>
@@ -28971,10 +28971,10 @@
         <v>1</v>
       </c>
       <c r="Q310" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R310" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S310" t="n">
         <v>0.0326530612244898</v>
@@ -29063,10 +29063,10 @@
         <v>1</v>
       </c>
       <c r="Q311" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R311" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S311" t="n">
         <v>0.02448979591836735</v>
@@ -29155,10 +29155,10 @@
         <v>1</v>
       </c>
       <c r="Q312" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R312" t="n">
-        <v>3.2</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="S312" t="n">
         <v>0.04081632653061224</v>
@@ -29247,10 +29247,10 @@
         <v>1</v>
       </c>
       <c r="Q313" t="n">
-        <v>20.8</v>
+        <v>6.933333333333334</v>
       </c>
       <c r="R313" t="n">
-        <v>8.800000000000001</v>
+        <v>2.933333333333334</v>
       </c>
       <c r="S313" t="n">
         <v>0.0326530612244898</v>
@@ -29339,10 +29339,10 @@
         <v>0</v>
       </c>
       <c r="Q314" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R314" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S314" t="n">
         <v>0.02857142857142857</v>
@@ -29431,10 +29431,10 @@
         <v>1</v>
       </c>
       <c r="Q315" t="n">
-        <v>17.92</v>
+        <v>4.48</v>
       </c>
       <c r="R315" t="n">
-        <v>10.08</v>
+        <v>2.52</v>
       </c>
       <c r="S315" t="n">
         <v>0.05306122448979592</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="Q316" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R316" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S316" t="n">
         <v>0.04897959183673469</v>
@@ -29615,10 +29615,10 @@
         <v>1</v>
       </c>
       <c r="Q317" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R317" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="S317" t="n">
         <v>0.04897959183673469</v>
@@ -29707,10 +29707,10 @@
         <v>1</v>
       </c>
       <c r="Q318" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R318" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S318" t="n">
         <v>0.0326530612244898</v>
@@ -29799,10 +29799,10 @@
         <v>1</v>
       </c>
       <c r="Q319" t="n">
-        <v>24.8</v>
+        <v>6.2</v>
       </c>
       <c r="R319" t="n">
-        <v>1.52</v>
+        <v>0.38</v>
       </c>
       <c r="S319" t="n">
         <v>0.04</v>
@@ -29891,10 +29891,10 @@
         <v>1</v>
       </c>
       <c r="Q320" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R320" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S320" t="n">
         <v>0.06122448979591837</v>
@@ -29983,10 +29983,10 @@
         <v>1</v>
       </c>
       <c r="Q321" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R321" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S321" t="n">
         <v>0.0326530612244898</v>
@@ -30075,10 +30075,10 @@
         <v>1</v>
       </c>
       <c r="Q322" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R322" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S322" t="n">
         <v>0.08163265306122448</v>
@@ -30167,10 +30167,10 @@
         <v>1</v>
       </c>
       <c r="Q323" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R323" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S323" t="n">
         <v>0.07346938775510205</v>
@@ -30259,10 +30259,10 @@
         <v>1</v>
       </c>
       <c r="Q324" t="n">
-        <v>27.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="R324" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="S324" t="n">
         <v>0.04897959183673469</v>
@@ -30351,10 +30351,10 @@
         <v>1</v>
       </c>
       <c r="Q325" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R325" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S325" t="n">
         <v>0.08163265306122448</v>
@@ -30443,10 +30443,10 @@
         <v>1</v>
       </c>
       <c r="Q326" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R326" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S326" t="n">
         <v>0.04081632653061224</v>
@@ -30535,10 +30535,10 @@
         <v>1</v>
       </c>
       <c r="Q327" t="n">
-        <v>17.696</v>
+        <v>4.424</v>
       </c>
       <c r="R327" t="n">
-        <v>3.68</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="S327" t="n">
         <v>0.04897959183673469</v>
@@ -30627,10 +30627,10 @@
         <v>1</v>
       </c>
       <c r="Q328" t="n">
-        <v>14.4</v>
+        <v>4.8</v>
       </c>
       <c r="R328" t="n">
-        <v>4.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="S328" t="n">
         <v>0.02040816326530612</v>
@@ -30719,10 +30719,10 @@
         <v>1</v>
       </c>
       <c r="Q329" t="n">
-        <v>16.16</v>
+        <v>4.04</v>
       </c>
       <c r="R329" t="n">
-        <v>5.120000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="S329" t="n">
         <v>0.02040816326530612</v>
@@ -30811,10 +30811,10 @@
         <v>1</v>
       </c>
       <c r="Q330" t="n">
-        <v>10.4</v>
+        <v>2.08</v>
       </c>
       <c r="R330" t="n">
-        <v>3.36</v>
+        <v>0.672</v>
       </c>
       <c r="S330" t="n">
         <v>0.05714285714285714</v>
@@ -30903,10 +30903,10 @@
         <v>1</v>
       </c>
       <c r="Q331" t="n">
-        <v>17.6</v>
+        <v>4.4</v>
       </c>
       <c r="R331" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S331" t="n">
         <v>0.06</v>
@@ -30995,10 +30995,10 @@
         <v>1</v>
       </c>
       <c r="Q332" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R332" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S332" t="n">
         <v>0.0326530612244898</v>
@@ -31087,10 +31087,10 @@
         <v>1</v>
       </c>
       <c r="Q333" t="n">
-        <v>27.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="R333" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S333" t="n">
         <v>0.08163265306122448</v>
@@ -31179,10 +31179,10 @@
         <v>1</v>
       </c>
       <c r="Q334" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R334" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S334" t="n">
         <v>0.0326530612244898</v>
@@ -31271,10 +31271,10 @@
         <v>1</v>
       </c>
       <c r="Q335" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R335" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S335" t="n">
         <v>0.08163265306122448</v>
@@ -31363,10 +31363,10 @@
         <v>2</v>
       </c>
       <c r="Q336" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R336" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
       <c r="S336" t="n">
         <v>0.06122448979591837</v>
@@ -31455,10 +31455,10 @@
         <v>1</v>
       </c>
       <c r="Q337" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R337" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S337" t="n">
         <v>0</v>
@@ -31547,10 +31547,10 @@
         <v>1</v>
       </c>
       <c r="Q338" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R338" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S338" t="n">
         <v>0.02040816326530612</v>
@@ -31639,10 +31639,10 @@
         <v>1</v>
       </c>
       <c r="Q339" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R339" t="n">
-        <v>4.800000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S339" t="n">
         <v>0.06122448979591837</v>
@@ -31731,10 +31731,10 @@
         <v>1</v>
       </c>
       <c r="Q340" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R340" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="S340" t="n">
         <v>0</v>
@@ -31823,10 +31823,10 @@
         <v>3</v>
       </c>
       <c r="Q341" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R341" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S341" t="n">
         <v>0.08163265306122448</v>
@@ -32007,10 +32007,10 @@
         <v>1</v>
       </c>
       <c r="Q343" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R343" t="n">
-        <v>3.2</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="S343" t="n">
         <v>0.08163265306122448</v>
@@ -32099,10 +32099,10 @@
         <v>1</v>
       </c>
       <c r="Q344" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R344" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S344" t="n">
         <v>0.08163265306122448</v>
@@ -32191,10 +32191,10 @@
         <v>1</v>
       </c>
       <c r="Q345" t="n">
-        <v>25.6</v>
+        <v>6.4</v>
       </c>
       <c r="R345" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S345" t="n">
         <v>0.0326530612244898</v>
@@ -32283,10 +32283,10 @@
         <v>1</v>
       </c>
       <c r="Q346" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="R346" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S346" t="n">
         <v>0</v>
@@ -32375,10 +32375,10 @@
         <v>1</v>
       </c>
       <c r="Q347" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="R347" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S347" t="n">
         <v>0.02040816326530612</v>
@@ -32467,10 +32467,10 @@
         <v>1</v>
       </c>
       <c r="Q348" t="n">
-        <v>25.6</v>
+        <v>6.4</v>
       </c>
       <c r="R348" t="n">
-        <v>2.56</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="S348" t="n">
         <v>0.03877551020408163</v>
@@ -32559,10 +32559,10 @@
         <v>1</v>
       </c>
       <c r="Q349" t="n">
-        <v>12.16</v>
+        <v>3.04</v>
       </c>
       <c r="R349" t="n">
-        <v>1.12</v>
+        <v>0.28</v>
       </c>
       <c r="S349" t="n">
         <v>0</v>
@@ -32651,10 +32651,10 @@
         <v>1</v>
       </c>
       <c r="Q350" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R350" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S350" t="n">
         <v>0</v>
@@ -32743,10 +32743,10 @@
         <v>1</v>
       </c>
       <c r="Q351" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="R351" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S351" t="n">
         <v>0.06122448979591837</v>
@@ -32835,10 +32835,10 @@
         <v>1</v>
       </c>
       <c r="Q352" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R352" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S352" t="n">
         <v>0.08163265306122448</v>
@@ -32927,10 +32927,10 @@
         <v>1</v>
       </c>
       <c r="Q353" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R353" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S353" t="n">
         <v>0.04081632653061224</v>
@@ -33019,10 +33019,10 @@
         <v>1</v>
       </c>
       <c r="Q354" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="R354" t="n">
-        <v>1.92</v>
+        <v>0.48</v>
       </c>
       <c r="S354" t="n">
         <v>0.03673469387755102</v>
@@ -33111,10 +33111,10 @@
         <v>0</v>
       </c>
       <c r="Q355" t="n">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="R355" t="n">
-        <v>1.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S355" t="n">
         <v>0.04081632653061224</v>
@@ -33203,10 +33203,10 @@
         <v>1</v>
       </c>
       <c r="Q356" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R356" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S356" t="n">
         <v>0.0326530612244898</v>
@@ -33295,10 +33295,10 @@
         <v>1</v>
       </c>
       <c r="Q357" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R357" t="n">
-        <v>2.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="S357" t="n">
         <v>0.08163265306122448</v>
@@ -33387,10 +33387,10 @@
         <v>1</v>
       </c>
       <c r="Q358" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R358" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S358" t="n">
         <v>0</v>
@@ -33479,10 +33479,10 @@
         <v>1</v>
       </c>
       <c r="Q359" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R359" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S359" t="n">
         <v>0.04081632653061224</v>
@@ -33571,10 +33571,10 @@
         <v>0</v>
       </c>
       <c r="Q360" t="n">
-        <v>32</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="R360" t="n">
-        <v>8</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="S360" t="n">
         <v>0</v>
@@ -33663,10 +33663,10 @@
         <v>1</v>
       </c>
       <c r="Q361" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R361" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S361" t="n">
         <v>0.04081632653061224</v>
@@ -33755,10 +33755,10 @@
         <v>1</v>
       </c>
       <c r="Q362" t="n">
-        <v>19.52</v>
+        <v>4.88</v>
       </c>
       <c r="R362" t="n">
-        <v>13.92</v>
+        <v>3.48</v>
       </c>
       <c r="S362" t="n">
         <v>0.08612244897959183</v>
@@ -33847,10 +33847,10 @@
         <v>1</v>
       </c>
       <c r="Q363" t="n">
-        <v>19.2</v>
+        <v>6.400000000000001</v>
       </c>
       <c r="R363" t="n">
-        <v>2.4</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="S363" t="n">
         <v>0.02448979591836735</v>
@@ -33939,10 +33939,10 @@
         <v>1</v>
       </c>
       <c r="Q364" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="R364" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S364" t="n">
         <v>0.02857142857142857</v>
@@ -34031,10 +34031,10 @@
         <v>1</v>
       </c>
       <c r="Q365" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R365" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S365" t="n">
         <v>0.04081632653061224</v>
@@ -34123,10 +34123,10 @@
         <v>1</v>
       </c>
       <c r="Q366" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R366" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S366" t="n">
         <v>0.0326530612244898</v>
@@ -34215,10 +34215,10 @@
         <v>0</v>
       </c>
       <c r="Q367" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R367" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S367" t="n">
         <v>0.04081632653061224</v>
@@ -34307,10 +34307,10 @@
         <v>1</v>
       </c>
       <c r="Q368" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R368" t="n">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="S368" t="n">
         <v>0.07346938775510205</v>
@@ -34399,10 +34399,10 @@
         <v>1</v>
       </c>
       <c r="Q369" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R369" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S369" t="n">
         <v>0.0326530612244898</v>
@@ -34491,10 +34491,10 @@
         <v>1</v>
       </c>
       <c r="Q370" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R370" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S370" t="n">
         <v>0.04081632653061224</v>
@@ -34583,10 +34583,10 @@
         <v>1</v>
       </c>
       <c r="Q371" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R371" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S371" t="n">
         <v>0.04081632653061224</v>
@@ -34675,10 +34675,10 @@
         <v>1</v>
       </c>
       <c r="Q372" t="n">
-        <v>27.2</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="R372" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="S372" t="n">
         <v>0.06122448979591837</v>
@@ -34767,10 +34767,10 @@
         <v>1</v>
       </c>
       <c r="Q373" t="n">
-        <v>19.2</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="R373" t="n">
-        <v>4.800000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S373" t="n">
         <v>0.08163265306122448</v>
@@ -34859,10 +34859,10 @@
         <v>1</v>
       </c>
       <c r="Q374" t="n">
-        <v>29.12</v>
+        <v>7.28</v>
       </c>
       <c r="R374" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S374" t="n">
         <v>0.02448979591836735</v>
@@ -34951,10 +34951,10 @@
         <v>1</v>
       </c>
       <c r="Q375" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R375" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S375" t="n">
         <v>0.02040816326530612</v>
@@ -35043,10 +35043,10 @@
         <v>1</v>
       </c>
       <c r="Q376" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R376" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S376" t="n">
         <v>0</v>
@@ -35135,10 +35135,10 @@
         <v>1</v>
       </c>
       <c r="Q377" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R377" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S377" t="n">
         <v>0.1020408163265306</v>
@@ -35227,10 +35227,10 @@
         <v>0</v>
       </c>
       <c r="Q378" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R378" t="n">
-        <v>12.8</v>
+        <v>3.2</v>
       </c>
       <c r="S378" t="n">
         <v>0.0326530612244898</v>
@@ -35319,10 +35319,10 @@
         <v>1</v>
       </c>
       <c r="Q379" t="n">
-        <v>16.96</v>
+        <v>4.24</v>
       </c>
       <c r="R379" t="n">
-        <v>3.68</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="S379" t="n">
         <v>0</v>
@@ -35411,10 +35411,10 @@
         <v>1</v>
       </c>
       <c r="Q380" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R380" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S380" t="n">
         <v>0.04081632653061224</v>
@@ -35503,10 +35503,10 @@
         <v>1</v>
       </c>
       <c r="Q381" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R381" t="n">
-        <v>9.600000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="S381" t="n">
         <v>0.04081632653061224</v>
@@ -35595,10 +35595,10 @@
         <v>1</v>
       </c>
       <c r="Q382" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R382" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S382" t="n">
         <v>0</v>
@@ -35687,10 +35687,10 @@
         <v>0</v>
       </c>
       <c r="Q383" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
       <c r="R383" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="S383" t="n">
         <v>0.04081632653061224</v>
@@ -35779,10 +35779,10 @@
         <v>1</v>
       </c>
       <c r="Q384" t="n">
-        <v>24.4</v>
+        <v>8.133333333333335</v>
       </c>
       <c r="R384" t="n">
-        <v>3.04</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="S384" t="n">
         <v>0.03306122448979592</v>
@@ -35871,10 +35871,10 @@
         <v>1</v>
       </c>
       <c r="Q385" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R385" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S385" t="n">
         <v>0.02040816326530612</v>
@@ -35963,10 +35963,10 @@
         <v>1</v>
       </c>
       <c r="Q386" t="n">
-        <v>21.216</v>
+        <v>5.304</v>
       </c>
       <c r="R386" t="n">
-        <v>9.392000000000001</v>
+        <v>2.348</v>
       </c>
       <c r="S386" t="n">
         <v>0.04081632653061224</v>
@@ -36055,10 +36055,10 @@
         <v>1</v>
       </c>
       <c r="Q387" t="n">
-        <v>12.8</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="R387" t="n">
-        <v>3.2</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="S387" t="n">
         <v>0.01224489795918367</v>
@@ -36147,10 +36147,10 @@
         <v>1</v>
       </c>
       <c r="Q388" t="n">
-        <v>13.12</v>
+        <v>4.373333333333333</v>
       </c>
       <c r="R388" t="n">
-        <v>3.52</v>
+        <v>1.173333333333334</v>
       </c>
       <c r="S388" t="n">
         <v>0.0326530612244898</v>
@@ -36239,10 +36239,10 @@
         <v>1</v>
       </c>
       <c r="Q389" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R389" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S389" t="n">
         <v>0.08163265306122448</v>
@@ -36331,10 +36331,10 @@
         <v>1</v>
       </c>
       <c r="Q390" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="R390" t="n">
-        <v>0.96</v>
+        <v>0.32</v>
       </c>
       <c r="S390" t="n">
         <v>0.04081632653061224</v>
@@ -36423,10 +36423,10 @@
         <v>1</v>
       </c>
       <c r="Q391" t="n">
-        <v>16</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="R391" t="n">
-        <v>1.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S391" t="n">
         <v>0.02040816326530612</v>
@@ -36515,10 +36515,10 @@
         <v>1</v>
       </c>
       <c r="Q392" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R392" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S392" t="n">
         <v>0.02040816326530612</v>
@@ -36607,10 +36607,10 @@
         <v>1</v>
       </c>
       <c r="Q393" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R393" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S393" t="n">
         <v>0.04081632653061224</v>
@@ -36699,10 +36699,10 @@
         <v>1</v>
       </c>
       <c r="Q394" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R394" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S394" t="n">
         <v>0.02122448979591837</v>
@@ -36791,10 +36791,10 @@
         <v>1</v>
       </c>
       <c r="Q395" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R395" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S395" t="n">
         <v>0.06122448979591837</v>
@@ -36883,10 +36883,10 @@
         <v>1</v>
       </c>
       <c r="Q396" t="n">
-        <v>13.92</v>
+        <v>3.48</v>
       </c>
       <c r="R396" t="n">
-        <v>4.48</v>
+        <v>1.12</v>
       </c>
       <c r="S396" t="n">
         <v>0.0163265306122449</v>
@@ -36975,10 +36975,10 @@
         <v>1</v>
       </c>
       <c r="Q397" t="n">
-        <v>20.8</v>
+        <v>5.2</v>
       </c>
       <c r="R397" t="n">
-        <v>4.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="S397" t="n">
         <v>0.01224489795918367</v>
@@ -37067,10 +37067,10 @@
         <v>1</v>
       </c>
       <c r="Q398" t="n">
-        <v>19.2</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="R398" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S398" t="n">
         <v>0.02040816326530612</v>
@@ -37159,10 +37159,10 @@
         <v>1</v>
       </c>
       <c r="Q399" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R399" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S399" t="n">
         <v>0.04081632653061224</v>
@@ -37251,10 +37251,10 @@
         <v>1</v>
       </c>
       <c r="Q400" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R400" t="n">
-        <v>2.08</v>
+        <v>0.52</v>
       </c>
       <c r="S400" t="n">
         <v>0.03469387755102041</v>
@@ -37343,10 +37343,10 @@
         <v>1</v>
       </c>
       <c r="Q401" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="R401" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S401" t="n">
         <v>0.0326530612244898</v>
@@ -37435,10 +37435,10 @@
         <v>1</v>
       </c>
       <c r="Q402" t="n">
-        <v>7.920000000000001</v>
+        <v>1.98</v>
       </c>
       <c r="R402" t="n">
-        <v>2.448</v>
+        <v>0.6120000000000001</v>
       </c>
       <c r="S402" t="n">
         <v>0.03551020408163266</v>
@@ -37527,10 +37527,10 @@
         <v>1</v>
       </c>
       <c r="Q403" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R403" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="S403" t="n">
         <v>0.04081632653061224</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="Q404" t="n">
-        <v>4.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="R404" t="n">
-        <v>1.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="S404" t="n">
         <v>0.06122448979591837</v>
